--- a/virtualGameServer/src/main/resources/excel/GlobalSettingRes.xlsx
+++ b/virtualGameServer/src/main/resources/excel/GlobalSettingRes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23400" windowHeight="7710"/>
+    <workbookView windowWidth="23400" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Config.tpl" sheetId="1" r:id="rId1"/>
@@ -37,13 +37,13 @@
     <t>Value</t>
   </si>
   <si>
-    <t>DefaultWelcomeMailCode</t>
-  </si>
-  <si>
-    <t>刚账号的默认欢迎邮件编号</t>
-  </si>
-  <si>
-    <t>创建角色</t>
+    <t>InitMapId</t>
+  </si>
+  <si>
+    <t>新增角色默认出生场景</t>
+  </si>
+  <si>
+    <t>role</t>
   </si>
   <si>
     <t>TimeCityLevelForNoviceProtection</t>
@@ -64,9 +64,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -77,16 +77,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -94,6 +108,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -101,83 +130,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -189,6 +168,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -197,31 +199,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,187 +236,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,65 +435,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,6 +463,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -542,16 +492,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -560,133 +554,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1020,7 +1014,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1062,7 +1056,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>

--- a/virtualGameServer/src/main/resources/excel/GlobalSettingRes.xlsx
+++ b/virtualGameServer/src/main/resources/excel/GlobalSettingRes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23400" windowHeight="12435"/>
+    <workbookView windowWidth="26025" windowHeight="12660"/>
   </bookViews>
   <sheets>
     <sheet name="Config.tpl" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>配置编号</t>
   </si>
@@ -43,19 +43,10 @@
     <t>新增角色默认出生场景</t>
   </si>
   <si>
-    <t>role</t>
+    <t>DurabilityDownPerAttack</t>
   </si>
   <si>
-    <t>TimeCityLevelForNoviceProtection</t>
-  </si>
-  <si>
-    <t>新手保护所需宫殿等级</t>
-  </si>
-  <si>
-    <t>TimeRequiredForNoviceProtection</t>
-  </si>
-  <si>
-    <t>新手保护所需时间，单位：小时</t>
+    <t>每次攻击造成的武器耐久度扣除</t>
   </si>
 </sst>
 </file>
@@ -63,8 +54,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -78,22 +69,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,7 +107,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,21 +139,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,63 +152,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,6 +227,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -248,169 +395,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,16 +431,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,17 +454,52 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,41 +519,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -542,10 +533,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -554,133 +545,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1014,13 +1005,13 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="31.625" customWidth="1"/>
-    <col min="3" max="3" width="7.125" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="35.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1061,32 +1052,21 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="2:5">
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>72</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
+    <row r="6" spans="5:5">
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="5:5">
